--- a/BOT/Data.xlsx
+++ b/BOT/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF1B47-85BD-4583-A3C4-79AAB5EF6AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79CA94-6B19-4182-B257-ED41C8800BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1084">
   <si>
     <t>№ скважины</t>
   </si>
@@ -3463,6 +3463,9 @@
   </si>
   <si>
     <t>ООО Регионстрой</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -4635,6 +4638,81 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4660,81 +4738,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5493,7 +5496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V25" sqref="V25"/>
+      <selection pane="topRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,96 +5524,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="120" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="126" t="s">
+      <c r="M1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="126"/>
-      <c r="O1" s="121" t="s">
+      <c r="N1" s="115"/>
+      <c r="O1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="121" t="s">
+      <c r="P1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="121" t="s">
+      <c r="Q1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="109" t="s">
+      <c r="R1" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="109" t="s">
+      <c r="S1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="124" t="s">
+      <c r="T1" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124" t="s">
+      <c r="U1" s="100"/>
+      <c r="V1" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="124"/>
-      <c r="X1" s="128" t="s">
+      <c r="W1" s="100"/>
+      <c r="X1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="124" t="s">
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124" t="s">
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
       <c r="AW1" s="134" t="s">
         <v>1048</v>
       </c>
@@ -5624,77 +5627,77 @@
       <c r="BE1" s="135"/>
       <c r="BF1" s="135"/>
       <c r="BG1" s="136"/>
-      <c r="BH1" s="107" t="s">
+      <c r="BH1" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="BI1" s="100" t="s">
+      <c r="BI1" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="100" t="s">
+      <c r="BJ1" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="100" t="s">
+      <c r="BK1" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="105" t="s">
+      <c r="BL1" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="103" t="s">
+      <c r="BM1" s="128" t="s">
         <v>1077</v>
       </c>
-      <c r="BN1" s="103" t="s">
+      <c r="BN1" s="128" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
       <c r="AW2" s="137"/>
       <c r="AX2" s="138"/>
       <c r="AY2" s="138"/>
@@ -5706,21 +5709,21 @@
       <c r="BE2" s="138"/>
       <c r="BF2" s="138"/>
       <c r="BG2" s="139"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="106"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
+      <c r="BH2" s="133"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="131"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
     </row>
     <row r="3" spans="1:66" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="112"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5730,20 +5733,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="115"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="114"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5838,27 +5841,27 @@
         <v>1050</v>
       </c>
       <c r="AY3" s="140"/>
-      <c r="AZ3" s="102" t="s">
+      <c r="AZ3" s="127" t="s">
         <v>1051</v>
       </c>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102" t="s">
+      <c r="BA3" s="127"/>
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127" t="s">
         <v>1052</v>
       </c>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
       <c r="BG3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="106"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
+      <c r="BH3" s="133"/>
+      <c r="BI3" s="126"/>
+      <c r="BJ3" s="126"/>
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
     </row>
     <row r="4" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
@@ -6199,19 +6202,19 @@
       <c r="AV5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AW5" s="102" t="s">
+      <c r="AW5" s="127" t="s">
         <v>1065</v>
       </c>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
       <c r="BH5" s="30"/>
       <c r="BI5" s="32"/>
       <c r="BJ5" s="32"/>
@@ -6431,7 +6434,9 @@
       <c r="D7" s="73">
         <v>1.7</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="74" t="s">
+        <v>1083</v>
+      </c>
       <c r="F7" s="75">
         <v>0.40666912199999999</v>
       </c>
@@ -6448,7 +6453,7 @@
         <v>53.923197857175388</v>
       </c>
       <c r="K7" s="76">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L7" s="76">
         <v>0.93823504956765735</v>
@@ -6459,47 +6464,35 @@
       <c r="N7" s="75">
         <v>0.29227899999999996</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="12">
+        <v>16</v>
+      </c>
       <c r="P7" s="77">
-        <v>1.0820000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" s="76">
         <v>6.7349999999999993E-2</v>
       </c>
       <c r="R7" s="67"/>
-      <c r="S7" s="78"/>
+      <c r="S7" s="78">
+        <v>10</v>
+      </c>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
-      <c r="AB7" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
-      <c r="AD7" s="67">
-        <f>AB7+0.1</f>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD7" s="67"/>
       <c r="AE7" s="67"/>
-      <c r="AF7" s="67">
-        <f>AD7+0.1</f>
-        <v>0.25</v>
-      </c>
+      <c r="AF7" s="67"/>
       <c r="AG7" s="67"/>
-      <c r="AI7" s="66">
-        <v>30</v>
-      </c>
-      <c r="AJ7" s="66">
-        <v>20</v>
-      </c>
-      <c r="AK7" s="66">
-        <v>20</v>
-      </c>
-      <c r="AL7" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
       <c r="AM7" s="78"/>
       <c r="AN7" s="78"/>
       <c r="AO7" s="78"/>
@@ -6566,44 +6559,22 @@
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1058</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.9</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="37">
-        <v>0.32289095600000001</v>
-      </c>
-      <c r="G8" s="40">
-        <v>2.72</v>
-      </c>
-      <c r="H8" s="76">
-        <v>1.9</v>
-      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="76">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K8" s="76"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="37">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="N8" s="37">
-        <v>0.24765700000000002</v>
-      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="41">
-        <v>0.89200000000000002</v>
-      </c>
+      <c r="P8" s="41"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="67"/>
       <c r="S8" s="78"/>
@@ -6613,32 +6584,16 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
-      <c r="AD8" s="67">
-        <f t="shared" ref="AD8:AD26" si="0">AB8+0.1</f>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD8" s="67"/>
       <c r="AE8" s="67"/>
-      <c r="AF8" s="67">
-        <f t="shared" ref="AF8:AF26" si="1">AD8+0.1</f>
-        <v>0.25</v>
-      </c>
+      <c r="AF8" s="67"/>
       <c r="AG8" s="18"/>
-      <c r="AI8" s="66">
-        <v>31</v>
-      </c>
-      <c r="AJ8" s="66">
-        <v>21</v>
-      </c>
-      <c r="AK8" s="66">
-        <v>21</v>
-      </c>
-      <c r="AL8" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
@@ -6649,103 +6604,43 @@
       <c r="AT8" s="15"/>
       <c r="AU8" s="15"/>
       <c r="AV8" s="15"/>
-      <c r="AW8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC8" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD8" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE8" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF8" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG8" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH8" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI8" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="BJ8" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK8" s="36">
-        <v>44886</v>
-      </c>
-      <c r="BL8" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="BM8" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN8" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="26"/>
+      <c r="BM8" s="99"/>
+      <c r="BN8" s="99"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1059</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="37">
-        <v>0.32285227899999996</v>
-      </c>
-      <c r="G9" s="40">
-        <v>2.74</v>
-      </c>
-      <c r="H9" s="76">
-        <v>1.9</v>
-      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="76">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K9" s="76"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="37">
-        <v>0.317</v>
-      </c>
-      <c r="N9" s="37">
-        <v>0.22106099999999998</v>
-      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="41">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="Q9" s="40">
-        <v>9.8729999999999998E-2</v>
-      </c>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="67"/>
       <c r="S9" s="78"/>
       <c r="V9" s="66"/>
@@ -6754,32 +6649,16 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB9" s="67"/>
       <c r="AC9" s="67"/>
-      <c r="AD9" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD9" s="67"/>
       <c r="AE9" s="67"/>
-      <c r="AF9" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF9" s="67"/>
       <c r="AG9" s="18"/>
-      <c r="AI9" s="66">
-        <v>32</v>
-      </c>
-      <c r="AJ9" s="66">
-        <v>22</v>
-      </c>
-      <c r="AK9" s="66">
-        <v>22</v>
-      </c>
-      <c r="AL9" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
@@ -6790,109 +6669,43 @@
       <c r="AT9" s="15"/>
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
-      <c r="AW9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC9" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD9" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE9" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF9" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG9" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH9" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI9" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ9" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK9" s="36">
-        <v>44887</v>
-      </c>
-      <c r="BL9" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="BM9" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN9" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="99"/>
+      <c r="BN9" s="99"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1060</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="10">
-        <v>3.9</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="37">
-        <v>0.30724640799999997</v>
-      </c>
-      <c r="G10" s="40">
-        <v>2.71</v>
-      </c>
-      <c r="H10" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I10" s="40">
-        <v>1.3998891018563044</v>
-      </c>
-      <c r="J10" s="40">
-        <v>48.343575577258136</v>
-      </c>
-      <c r="K10" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0.88969608269113865</v>
-      </c>
-      <c r="M10" s="37">
-        <v>0.315</v>
-      </c>
-      <c r="N10" s="37">
-        <v>0.21430399999999999</v>
-      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="41">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="Q10" s="40">
-        <v>7.5109999999999996E-2</v>
-      </c>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="67"/>
       <c r="S10" s="78"/>
       <c r="V10" s="66"/>
@@ -6901,32 +6714,16 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-      <c r="AB10" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB10" s="67"/>
       <c r="AC10" s="67"/>
-      <c r="AD10" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD10" s="67"/>
       <c r="AE10" s="67"/>
-      <c r="AF10" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF10" s="67"/>
       <c r="AG10" s="18"/>
-      <c r="AI10" s="66">
-        <v>33</v>
-      </c>
-      <c r="AJ10" s="66">
-        <v>23</v>
-      </c>
-      <c r="AK10" s="66">
-        <v>23</v>
-      </c>
-      <c r="AL10" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
@@ -6937,103 +6734,43 @@
       <c r="AT10" s="15"/>
       <c r="AU10" s="15"/>
       <c r="AV10" s="15"/>
-      <c r="AW10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC10" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD10" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE10" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF10" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG10" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH10" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI10" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ10" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="BK10" s="36">
-        <v>44888</v>
-      </c>
-      <c r="BL10" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="BM10" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN10" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="99"/>
+      <c r="BN10" s="99"/>
     </row>
     <row r="11" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.7</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="37">
-        <v>0.40178517999999996</v>
-      </c>
-      <c r="G11" s="40">
-        <v>2.73</v>
-      </c>
-      <c r="H11" s="76">
-        <v>1.9</v>
-      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="76">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K11" s="76"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="37">
-        <v>0.39799999999999996</v>
-      </c>
-      <c r="N11" s="37">
-        <v>0.29838999999999999</v>
-      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="41">
-        <v>1.038</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>7.0250000000000007E-2</v>
-      </c>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="67"/>
       <c r="S11" s="78"/>
       <c r="V11" s="66"/>
@@ -7042,32 +6779,16 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB11" s="67"/>
       <c r="AC11" s="67"/>
-      <c r="AD11" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
-      <c r="AF11" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF11" s="67"/>
       <c r="AG11" s="18"/>
-      <c r="AI11" s="66">
-        <v>34</v>
-      </c>
-      <c r="AJ11" s="66">
-        <v>24</v>
-      </c>
-      <c r="AK11" s="66">
-        <v>24</v>
-      </c>
-      <c r="AL11" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
@@ -7078,105 +6799,43 @@
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
       <c r="AV11" s="15"/>
-      <c r="AW11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC11" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD11" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE11" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF11" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG11" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH11" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI11" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="BJ11" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="BK11" s="36">
-        <v>44889</v>
-      </c>
-      <c r="BL11" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM11" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN11" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="35"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="26"/>
+      <c r="BM11" s="99"/>
+      <c r="BN11" s="99"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1062</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2.7</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="37">
-        <v>0.32260245299999996</v>
-      </c>
-      <c r="G12" s="40">
-        <v>2.71</v>
-      </c>
-      <c r="H12" s="76">
-        <v>1.9</v>
-      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="76">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K12" s="76"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="37">
-        <v>0.32799999999999996</v>
-      </c>
-      <c r="N12" s="37">
-        <v>0.25406099999999993</v>
-      </c>
-      <c r="O12" s="12">
-        <v>3</v>
-      </c>
-      <c r="P12" s="41">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>3.5180000000000003E-2</v>
-      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="67"/>
       <c r="S12" s="78"/>
       <c r="V12" s="66"/>
@@ -7185,32 +6844,16 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB12" s="67"/>
       <c r="AC12" s="67"/>
-      <c r="AD12" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
-      <c r="AF12" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF12" s="67"/>
       <c r="AG12" s="18"/>
-      <c r="AI12" s="66">
-        <v>35</v>
-      </c>
-      <c r="AJ12" s="66">
-        <v>25</v>
-      </c>
-      <c r="AK12" s="66">
-        <v>25</v>
-      </c>
-      <c r="AL12" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="15"/>
@@ -7221,111 +6864,43 @@
       <c r="AT12" s="15"/>
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC12" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD12" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE12" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF12" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG12" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH12" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI12" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="BJ12" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK12" s="36">
-        <v>44890</v>
-      </c>
-      <c r="BL12" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM12" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN12" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="35"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="99"/>
+      <c r="BN12" s="99"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1063</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3.4</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="37">
-        <v>0.33181128500000007</v>
-      </c>
-      <c r="G13" s="40">
-        <v>2.7</v>
-      </c>
-      <c r="H13" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I13" s="40">
-        <v>1.3740685490587354</v>
-      </c>
-      <c r="J13" s="40">
-        <v>49.108572257083878</v>
-      </c>
-      <c r="K13" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L13" s="40">
-        <v>0.92841520326524429</v>
-      </c>
-      <c r="M13" s="37">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="N13" s="37">
-        <v>0.27173300000000006</v>
-      </c>
-      <c r="O13" s="12">
-        <v>3</v>
-      </c>
-      <c r="P13" s="41">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="Q13" s="40">
-        <v>6.9349999999999995E-2</v>
-      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="67"/>
       <c r="S13" s="78"/>
       <c r="V13" s="66"/>
@@ -7334,32 +6909,16 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB13" s="67"/>
       <c r="AC13" s="67"/>
-      <c r="AD13" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
-      <c r="AF13" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF13" s="67"/>
       <c r="AG13" s="18"/>
-      <c r="AI13" s="66">
-        <v>36</v>
-      </c>
-      <c r="AJ13" s="66">
-        <v>26</v>
-      </c>
-      <c r="AK13" s="66">
-        <v>26</v>
-      </c>
-      <c r="AL13" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
@@ -7370,111 +6929,43 @@
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC13" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD13" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE13" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF13" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG13" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH13" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="BI13" s="36">
-        <v>44864</v>
-      </c>
-      <c r="BJ13" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="BK13" s="36">
-        <v>44891</v>
-      </c>
-      <c r="BL13" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM13" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN13" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="17"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="99"/>
+      <c r="BN13" s="99"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1064</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2.4</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="37">
-        <v>0.40550840999999999</v>
-      </c>
-      <c r="G14" s="40">
-        <v>2.7</v>
-      </c>
-      <c r="H14" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1.2308713257717185</v>
-      </c>
-      <c r="J14" s="40">
-        <v>54.412173119565985</v>
-      </c>
-      <c r="K14" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L14" s="40">
-        <v>0.91731067812985534</v>
-      </c>
-      <c r="M14" s="37">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N14" s="37">
-        <v>0.29035100000000003</v>
-      </c>
-      <c r="O14" s="12">
-        <v>3</v>
-      </c>
-      <c r="P14" s="41">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q14" s="40">
-        <v>4.317E-2</v>
-      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="67"/>
       <c r="S14" s="78"/>
       <c r="V14" s="66"/>
@@ -7483,32 +6974,16 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
-      <c r="AB14" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB14" s="67"/>
       <c r="AC14" s="67"/>
-      <c r="AD14" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
-      <c r="AF14" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF14" s="67"/>
       <c r="AG14" s="18"/>
-      <c r="AI14" s="66">
-        <v>37</v>
-      </c>
-      <c r="AJ14" s="66">
-        <v>27</v>
-      </c>
-      <c r="AK14" s="66">
-        <v>27</v>
-      </c>
-      <c r="AL14" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
@@ -7519,105 +6994,43 @@
       <c r="AT14" s="15"/>
       <c r="AU14" s="15"/>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC14" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD14" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE14" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF14" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG14" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH14" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI14" s="36">
-        <v>44865</v>
-      </c>
-      <c r="BJ14" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK14" s="36">
-        <v>44892</v>
-      </c>
-      <c r="BL14" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="BM14" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN14" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="17"/>
+      <c r="BD14" s="17"/>
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="17"/>
+      <c r="BG14" s="17"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="26"/>
+      <c r="BM14" s="99"/>
+      <c r="BN14" s="99"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1065</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.7</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="37">
-        <v>0.33273051100000006</v>
-      </c>
-      <c r="G15" s="40">
-        <v>2.72</v>
-      </c>
-      <c r="H15" s="76">
-        <v>1.9</v>
-      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="76">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K15" s="76"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="N15" s="37">
-        <v>0.241919</v>
-      </c>
-      <c r="O15" s="12">
-        <v>3</v>
-      </c>
-      <c r="P15" s="41">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="Q15" s="40">
-        <v>4.8779999999999997E-2</v>
-      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="67"/>
       <c r="S15" s="78"/>
       <c r="V15" s="66"/>
@@ -7626,32 +7039,16 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
-      <c r="AB15" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB15" s="67"/>
       <c r="AC15" s="67"/>
-      <c r="AD15" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
-      <c r="AF15" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF15" s="67"/>
       <c r="AG15" s="18"/>
-      <c r="AI15" s="66">
-        <v>38</v>
-      </c>
-      <c r="AJ15" s="66">
-        <v>28</v>
-      </c>
-      <c r="AK15" s="66">
-        <v>28</v>
-      </c>
-      <c r="AL15" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
@@ -7662,111 +7059,43 @@
       <c r="AT15" s="15"/>
       <c r="AU15" s="15"/>
       <c r="AV15" s="15"/>
-      <c r="AW15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC15" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD15" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE15" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF15" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG15" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH15" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI15" s="36">
-        <v>44866</v>
-      </c>
-      <c r="BJ15" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="BK15" s="36">
-        <v>44893</v>
-      </c>
-      <c r="BL15" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM15" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN15" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="36"/>
+      <c r="BJ15" s="35"/>
+      <c r="BK15" s="36"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="99"/>
+      <c r="BN15" s="99"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1066</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1.4</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="37">
-        <v>0.38613458499999992</v>
-      </c>
-      <c r="G16" s="40">
-        <v>2.71</v>
-      </c>
-      <c r="H16" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I16" s="40">
-        <v>1.2552893628290791</v>
-      </c>
-      <c r="J16" s="40">
-        <v>53.679359305200038</v>
-      </c>
-      <c r="K16" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L16" s="40">
-        <v>0.90297396139742281</v>
-      </c>
-      <c r="M16" s="37">
-        <v>0.38799999999999996</v>
-      </c>
-      <c r="N16" s="37">
-        <v>0.30689499999999997</v>
-      </c>
-      <c r="O16" s="12">
-        <v>10</v>
-      </c>
-      <c r="P16" s="41">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="Q16" s="40">
-        <v>6.6449999999999995E-2</v>
-      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="67"/>
       <c r="S16" s="78"/>
       <c r="V16" s="66"/>
@@ -7775,32 +7104,16 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
-      <c r="AD16" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
-      <c r="AF16" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF16" s="67"/>
       <c r="AG16" s="18"/>
-      <c r="AI16" s="66">
-        <v>39</v>
-      </c>
-      <c r="AJ16" s="66">
-        <v>29</v>
-      </c>
-      <c r="AK16" s="66">
-        <v>29</v>
-      </c>
-      <c r="AL16" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
@@ -7811,111 +7124,43 @@
       <c r="AT16" s="15"/>
       <c r="AU16" s="15"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC16" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD16" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE16" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF16" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG16" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH16" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="BI16" s="36">
-        <v>44867</v>
-      </c>
-      <c r="BJ16" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="BK16" s="36">
-        <v>44894</v>
-      </c>
-      <c r="BL16" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="BM16" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN16" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="35"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="26"/>
+      <c r="BM16" s="99"/>
+      <c r="BN16" s="99"/>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1067</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2.1</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="37">
-        <v>0.33745365900000002</v>
-      </c>
-      <c r="G17" s="40">
-        <v>2.7</v>
-      </c>
-      <c r="H17" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I17" s="40">
-        <v>1.3084565496710043</v>
-      </c>
-      <c r="J17" s="40">
-        <v>51.538646308481326</v>
-      </c>
-      <c r="K17" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L17" s="40">
-        <v>0.85672302622417584</v>
-      </c>
-      <c r="M17" s="37">
-        <v>0.34700000000000003</v>
-      </c>
-      <c r="N17" s="37">
-        <v>0.275223</v>
-      </c>
-      <c r="O17" s="12">
-        <v>10</v>
-      </c>
-      <c r="P17" s="41">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="Q17" s="40">
-        <v>8.974E-2</v>
-      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="40"/>
       <c r="R17" s="67"/>
       <c r="S17" s="78"/>
       <c r="V17" s="66"/>
@@ -7924,32 +7169,16 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
-      <c r="AD17" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD17" s="67"/>
       <c r="AE17" s="67"/>
-      <c r="AF17" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF17" s="67"/>
       <c r="AG17" s="18"/>
-      <c r="AI17" s="66">
-        <v>40</v>
-      </c>
-      <c r="AJ17" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK17" s="66">
-        <v>30</v>
-      </c>
-      <c r="AL17" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
@@ -7960,111 +7189,43 @@
       <c r="AT17" s="15"/>
       <c r="AU17" s="15"/>
       <c r="AV17" s="15"/>
-      <c r="AW17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC17" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD17" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE17" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF17" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG17" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH17" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="BI17" s="36">
-        <v>44868</v>
-      </c>
-      <c r="BJ17" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="BK17" s="36">
-        <v>44895</v>
-      </c>
-      <c r="BL17" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM17" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN17" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="17"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="17"/>
+      <c r="BD17" s="17"/>
+      <c r="BE17" s="17"/>
+      <c r="BF17" s="17"/>
+      <c r="BG17" s="17"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="99"/>
+      <c r="BN17" s="99"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>1068</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1.3</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="37">
-        <v>0.59878420999999993</v>
-      </c>
-      <c r="G18" s="40">
-        <v>2.74</v>
-      </c>
-      <c r="H18" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="37">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="N18" s="37">
-        <v>0.21499099999999999</v>
-      </c>
-      <c r="O18" s="12">
-        <v>10</v>
-      </c>
-      <c r="P18" s="41">
-        <v>3.69</v>
-      </c>
-      <c r="Q18" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="67"/>
       <c r="S18" s="78"/>
       <c r="V18" s="66"/>
@@ -8073,32 +7234,16 @@
       <c r="Y18" s="65"/>
       <c r="Z18" s="65"/>
       <c r="AA18" s="65"/>
-      <c r="AB18" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
-      <c r="AD18" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
-      <c r="AF18" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF18" s="67"/>
       <c r="AG18" s="18"/>
-      <c r="AI18" s="66">
-        <v>41</v>
-      </c>
-      <c r="AJ18" s="66">
-        <v>31</v>
-      </c>
-      <c r="AK18" s="66">
-        <v>31</v>
-      </c>
-      <c r="AL18" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
@@ -8109,111 +7254,43 @@
       <c r="AT18" s="15"/>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
-      <c r="AW18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC18" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD18" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE18" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF18" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG18" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH18" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI18" s="36">
-        <v>44869</v>
-      </c>
-      <c r="BJ18" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="BK18" s="36">
-        <v>44896</v>
-      </c>
-      <c r="BL18" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="BM18" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN18" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="99"/>
+      <c r="BN18" s="99"/>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>1069</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2.1</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="37">
-        <v>0.55399931999999996</v>
-      </c>
-      <c r="G19" s="40">
-        <v>2.72</v>
-      </c>
-      <c r="H19" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="37">
-        <v>0.314</v>
-      </c>
-      <c r="N19" s="37">
-        <v>0.18524499999999997</v>
-      </c>
-      <c r="O19" s="12">
-        <v>10</v>
-      </c>
-      <c r="P19" s="41">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="Q19" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="67"/>
       <c r="S19" s="78"/>
       <c r="V19" s="66"/>
@@ -8222,32 +7299,16 @@
       <c r="Y19" s="65"/>
       <c r="Z19" s="65"/>
       <c r="AA19" s="65"/>
-      <c r="AB19" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
-      <c r="AD19" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
-      <c r="AF19" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF19" s="67"/>
       <c r="AG19" s="18"/>
-      <c r="AI19" s="66">
-        <v>42</v>
-      </c>
-      <c r="AJ19" s="66">
-        <v>32</v>
-      </c>
-      <c r="AK19" s="66">
-        <v>32</v>
-      </c>
-      <c r="AL19" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
@@ -8258,111 +7319,43 @@
       <c r="AT19" s="15"/>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
-      <c r="AW19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC19" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD19" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE19" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF19" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG19" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH19" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="BI19" s="36">
-        <v>44870</v>
-      </c>
-      <c r="BJ19" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="BK19" s="36">
-        <v>44897</v>
-      </c>
-      <c r="BL19" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM19" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN19" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="26"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="99"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>1070</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="10">
-        <v>4</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="37">
-        <v>0.44425754999999995</v>
-      </c>
-      <c r="G20" s="40">
-        <v>2.7</v>
-      </c>
-      <c r="H20" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="37">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="N20" s="37">
-        <v>0.17984999999999998</v>
-      </c>
-      <c r="O20" s="12">
-        <v>10</v>
-      </c>
-      <c r="P20" s="41">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="Q20" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="67"/>
       <c r="S20" s="78"/>
       <c r="V20" s="66"/>
@@ -8371,32 +7364,16 @@
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
       <c r="AA20" s="65"/>
-      <c r="AB20" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB20" s="67"/>
       <c r="AC20" s="67"/>
-      <c r="AD20" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
-      <c r="AF20" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF20" s="67"/>
       <c r="AG20" s="18"/>
-      <c r="AI20" s="66">
-        <v>43</v>
-      </c>
-      <c r="AJ20" s="66">
-        <v>33</v>
-      </c>
-      <c r="AK20" s="66">
-        <v>33</v>
-      </c>
-      <c r="AL20" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
@@ -8407,111 +7384,43 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
-      <c r="AW20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC20" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD20" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE20" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF20" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG20" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH20" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI20" s="36">
-        <v>44871</v>
-      </c>
-      <c r="BJ20" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="BK20" s="36">
-        <v>44898</v>
-      </c>
-      <c r="BL20" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM20" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN20" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="26"/>
+      <c r="BM20" s="99"/>
+      <c r="BN20" s="99"/>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1071</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="37">
-        <v>0.53286882000000002</v>
-      </c>
-      <c r="G21" s="40">
-        <v>2.73</v>
-      </c>
-      <c r="H21" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I21" s="40">
-        <v>0.97855731712254412</v>
-      </c>
-      <c r="J21" s="40">
-        <v>64.155409629210837</v>
-      </c>
-      <c r="K21" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" s="40">
-        <v>0.81278053696665342</v>
-      </c>
-      <c r="M21" s="37">
-        <v>0.39299999999999996</v>
-      </c>
-      <c r="N21" s="37">
-        <v>0.29053199999999996</v>
-      </c>
-      <c r="O21" s="12">
-        <v>20</v>
-      </c>
-      <c r="P21" s="41">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="Q21" s="40">
-        <v>7.1940000000000004E-2</v>
-      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="67"/>
       <c r="S21" s="78"/>
       <c r="V21" s="66"/>
@@ -8520,32 +7429,16 @@
       <c r="Y21" s="65"/>
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
-      <c r="AB21" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
-      <c r="AD21" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
-      <c r="AF21" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF21" s="67"/>
       <c r="AG21" s="18"/>
-      <c r="AI21" s="66">
-        <v>44</v>
-      </c>
-      <c r="AJ21" s="66">
-        <v>34</v>
-      </c>
-      <c r="AK21" s="66">
-        <v>34</v>
-      </c>
-      <c r="AL21" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
@@ -8556,111 +7449,43 @@
       <c r="AT21" s="15"/>
       <c r="AU21" s="15"/>
       <c r="AV21" s="15"/>
-      <c r="AW21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC21" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD21" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE21" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF21" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG21" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH21" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI21" s="36">
-        <v>44872</v>
-      </c>
-      <c r="BJ21" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK21" s="36">
-        <v>44899</v>
-      </c>
-      <c r="BL21" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="BM21" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN21" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="34"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="35"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="99"/>
+      <c r="BN21" s="99"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>1072</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="10">
-        <v>3</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="37">
-        <v>0.50605091199999985</v>
-      </c>
-      <c r="G22" s="40">
-        <v>2.72</v>
-      </c>
-      <c r="H22" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I22" s="40">
-        <v>1.035821556608838</v>
-      </c>
-      <c r="J22" s="40">
-        <v>61.918325124675079</v>
-      </c>
-      <c r="K22" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L22" s="40">
-        <v>0.84656431248052544</v>
-      </c>
-      <c r="M22" s="37">
-        <v>0.374</v>
-      </c>
-      <c r="N22" s="37">
-        <v>0.271476</v>
-      </c>
-      <c r="O22" s="12">
-        <v>20</v>
-      </c>
-      <c r="P22" s="41">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="Q22" s="40">
-        <v>3.9199999999999999E-2</v>
-      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="40"/>
       <c r="R22" s="67"/>
       <c r="S22" s="78"/>
       <c r="V22" s="66"/>
@@ -8669,32 +7494,16 @@
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
-      <c r="AB22" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
-      <c r="AD22" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
-      <c r="AF22" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF22" s="67"/>
       <c r="AG22" s="18"/>
-      <c r="AI22" s="66">
-        <v>45</v>
-      </c>
-      <c r="AJ22" s="66">
-        <v>35</v>
-      </c>
-      <c r="AK22" s="66">
-        <v>35</v>
-      </c>
-      <c r="AL22" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
@@ -8705,111 +7514,43 @@
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC22" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD22" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE22" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF22" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG22" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH22" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI22" s="36">
-        <v>44873</v>
-      </c>
-      <c r="BJ22" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="BK22" s="36">
-        <v>44900</v>
-      </c>
-      <c r="BL22" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM22" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN22" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="36"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="99"/>
+      <c r="BN22" s="99"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>1073</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="10">
-        <v>4.7</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="37">
-        <v>0.50433440000000007</v>
-      </c>
-      <c r="G23" s="40">
-        <v>2.7</v>
-      </c>
-      <c r="H23" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I23" s="40">
-        <v>1.0835356819600748</v>
-      </c>
-      <c r="J23" s="40">
-        <v>59.869048816293521</v>
-      </c>
-      <c r="K23" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23" s="40">
-        <v>0.9127659931874571</v>
-      </c>
-      <c r="M23" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="N23" s="37">
-        <v>0.25354100000000002</v>
-      </c>
-      <c r="O23" s="12">
-        <v>20</v>
-      </c>
-      <c r="P23" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="Q23" s="40">
-        <v>7.5719999999999996E-2</v>
-      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="67"/>
       <c r="S23" s="78"/>
       <c r="V23" s="66"/>
@@ -8818,32 +7559,16 @@
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
-      <c r="AB23" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
-      <c r="AD23" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
-      <c r="AF23" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF23" s="67"/>
       <c r="AG23" s="18"/>
-      <c r="AI23" s="66">
-        <v>46</v>
-      </c>
-      <c r="AJ23" s="66">
-        <v>36</v>
-      </c>
-      <c r="AK23" s="66">
-        <v>36</v>
-      </c>
-      <c r="AL23" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
@@ -8854,111 +7579,43 @@
       <c r="AT23" s="15"/>
       <c r="AU23" s="15"/>
       <c r="AV23" s="15"/>
-      <c r="AW23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC23" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD23" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE23" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF23" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG23" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH23" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI23" s="36">
-        <v>44874</v>
-      </c>
-      <c r="BJ23" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="BK23" s="36">
-        <v>44901</v>
-      </c>
-      <c r="BL23" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM23" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN23" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="35"/>
+      <c r="BK23" s="36"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="99"/>
+      <c r="BN23" s="99"/>
     </row>
     <row r="24" spans="1:66" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
-        <v>1074</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="53">
-        <v>1.6</v>
-      </c>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="37">
-        <v>0.56857786399999999</v>
-      </c>
-      <c r="G24" s="55">
-        <v>2.73</v>
-      </c>
-      <c r="H24" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I24" s="55">
-        <v>0.96903063270565204</v>
-      </c>
-      <c r="J24" s="55">
-        <v>64.504372428364405</v>
-      </c>
-      <c r="K24" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L24" s="55">
-        <v>0.85415817029493535</v>
-      </c>
-      <c r="M24" s="37">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="N24" s="37">
-        <v>0.18111199999999997</v>
-      </c>
-      <c r="O24" s="12">
-        <v>20</v>
-      </c>
-      <c r="P24" s="41">
-        <v>3.153</v>
-      </c>
-      <c r="Q24" s="55">
-        <v>3.134E-2</v>
-      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="55"/>
       <c r="R24" s="67"/>
       <c r="S24" s="78"/>
       <c r="V24" s="66"/>
@@ -8967,32 +7624,16 @@
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
       <c r="AA24" s="65"/>
-      <c r="AB24" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB24" s="67"/>
       <c r="AC24" s="67"/>
-      <c r="AD24" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
-      <c r="AF24" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF24" s="67"/>
       <c r="AG24" s="58"/>
-      <c r="AI24" s="66">
-        <v>47</v>
-      </c>
-      <c r="AJ24" s="66">
-        <v>37</v>
-      </c>
-      <c r="AK24" s="66">
-        <v>37</v>
-      </c>
-      <c r="AL24" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
@@ -9003,111 +7644,43 @@
       <c r="AT24" s="56"/>
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
-      <c r="AW24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC24" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD24" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE24" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF24" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG24" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH24" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="BI24" s="60">
-        <v>44875</v>
-      </c>
-      <c r="BJ24" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK24" s="60">
-        <v>44902</v>
-      </c>
-      <c r="BL24" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM24" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN24" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="60"/>
+      <c r="BJ24" s="61"/>
+      <c r="BK24" s="60"/>
+      <c r="BL24" s="62"/>
+      <c r="BM24" s="99"/>
+      <c r="BN24" s="99"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>1075</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="37">
-        <v>0.53895838699999998</v>
-      </c>
-      <c r="G25" s="40">
-        <v>2.72</v>
-      </c>
-      <c r="H25" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0.9811831253888218</v>
-      </c>
-      <c r="J25" s="40">
-        <v>63.92709097835214</v>
-      </c>
-      <c r="K25" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L25" s="40">
-        <v>0.82721873703005389</v>
-      </c>
-      <c r="M25" s="37">
-        <v>0.37</v>
-      </c>
-      <c r="N25" s="37">
-        <v>0.26766299999999998</v>
-      </c>
-      <c r="O25" s="12">
-        <v>20</v>
-      </c>
-      <c r="P25" s="41">
-        <v>2.6509999999999998</v>
-      </c>
-      <c r="Q25" s="40">
-        <v>7.5310000000000002E-2</v>
-      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="67"/>
       <c r="S25" s="78"/>
       <c r="V25" s="66"/>
@@ -9116,32 +7689,16 @@
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
       <c r="AA25" s="65"/>
-      <c r="AB25" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB25" s="67"/>
       <c r="AC25" s="67"/>
-      <c r="AD25" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
-      <c r="AF25" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF25" s="67"/>
       <c r="AG25" s="18"/>
-      <c r="AI25" s="66">
-        <v>48</v>
-      </c>
-      <c r="AJ25" s="66">
-        <v>38</v>
-      </c>
-      <c r="AK25" s="66">
-        <v>38</v>
-      </c>
-      <c r="AL25" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="15"/>
@@ -9152,111 +7709,43 @@
       <c r="AT25" s="15"/>
       <c r="AU25" s="15"/>
       <c r="AV25" s="15"/>
-      <c r="AW25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC25" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD25" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE25" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF25" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG25" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH25" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI25" s="36">
-        <v>44876</v>
-      </c>
-      <c r="BJ25" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK25" s="36">
-        <v>44903</v>
-      </c>
-      <c r="BL25" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="BM25" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN25" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="34"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="35"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="99"/>
+      <c r="BN25" s="99"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>1076</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2.9</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="37">
-        <v>0.47339246400000007</v>
-      </c>
-      <c r="G26" s="40">
-        <v>2.71</v>
-      </c>
-      <c r="H26" s="76">
-        <v>1.9</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="37">
-        <v>0.35100000000000003</v>
-      </c>
-      <c r="N26" s="37">
-        <v>0.26874700000000001</v>
-      </c>
-      <c r="O26" s="12">
-        <v>20</v>
-      </c>
-      <c r="P26" s="41">
-        <v>2.488</v>
-      </c>
-      <c r="Q26" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="40"/>
       <c r="R26" s="67"/>
       <c r="S26" s="78"/>
       <c r="V26" s="66"/>
@@ -9265,32 +7754,16 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
-      <c r="AB26" s="67">
-        <v>0.05</v>
-      </c>
+      <c r="AB26" s="67"/>
       <c r="AC26" s="67"/>
-      <c r="AD26" s="67">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="67"/>
-      <c r="AF26" s="67">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
+      <c r="AF26" s="67"/>
       <c r="AG26" s="18"/>
-      <c r="AI26" s="66">
-        <v>49</v>
-      </c>
-      <c r="AJ26" s="66">
-        <v>39</v>
-      </c>
-      <c r="AK26" s="66">
-        <v>39</v>
-      </c>
-      <c r="AL26" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="15"/>
@@ -9301,60 +7774,24 @@
       <c r="AT26" s="15"/>
       <c r="AU26" s="15"/>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BC26" s="17">
-        <v>4.01</v>
-      </c>
-      <c r="BD26" s="17">
-        <v>17.86</v>
-      </c>
-      <c r="BE26" s="17">
-        <v>51.87</v>
-      </c>
-      <c r="BF26" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="BG26" s="17">
-        <v>6.95</v>
-      </c>
-      <c r="BH26" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="BI26" s="36">
-        <v>44877</v>
-      </c>
-      <c r="BJ26" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK26" s="36">
-        <v>44904</v>
-      </c>
-      <c r="BL26" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM26" s="99" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BN26" s="99" t="s">
-        <v>1081</v>
-      </c>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="35"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="99"/>
+      <c r="BN26" s="99"/>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -20599,29 +19036,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V1:W2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="AM1:AR2"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="X1:AL2"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="BI1:BI3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="BK1:BK3"/>
     <mergeCell ref="BD3:BF3"/>
     <mergeCell ref="AW5:BG5"/>
@@ -20632,6 +19046,29 @@
     <mergeCell ref="AW1:BG2"/>
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BI1:BI3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="AM1:AR2"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="X1:AL2"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="R1:R3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20672,172 +19109,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="112" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="122" t="s">
+      <c r="N1" s="116"/>
+      <c r="O1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="110" t="s">
+      <c r="R1" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="110" t="s">
+      <c r="S1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="125" t="s">
+      <c r="T1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125" t="s">
+      <c r="U1" s="101"/>
+      <c r="V1" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125" t="s">
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125" t="s">
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125" t="s">
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="108" t="s">
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="101" t="s">
+      <c r="AV1" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="101" t="s">
+      <c r="AW1" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="101" t="s">
+      <c r="AX1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="101" t="s">
+      <c r="AY1" s="126" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="112"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -20847,20 +19284,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="115"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="114"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -20942,11 +19379,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -55910,12 +54347,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -55928,15 +54368,12 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
